--- a/outputs/PortfolioMarc_solutions.xlsx
+++ b/outputs/PortfolioMarc_solutions.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1_Constrained" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1_notConstrained" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2_Constrained" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2_notConstrained" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3_Constrained" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3_notConstrained" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -824,4 +828,816 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Task Label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Predecessors</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Successors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Contract signing</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2, 3, 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Layout definition(VDR)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>90</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STRUCTURAL DESIGN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" t="n">
+        <v>170</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EQUIPMENT DESIGN</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>170</v>
+      </c>
+      <c r="E5" t="n">
+        <v>250</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FINAL DESIGN REVIEW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>250</v>
+      </c>
+      <c r="E6" t="n">
+        <v>250</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3, 4, 5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Task Label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Predecessors</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Successors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Contract signing</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2, 3, 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Layout definition(VDR)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>90</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STRUCTURAL DESIGN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EQUIPMENT DESIGN</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FINAL DESIGN REVIEW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3, 4, 5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Task Label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Predecessors</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Successors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Contract signing</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2, 3, 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Layout definition(VDR)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STRUCTURAL DESIGN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>180</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EQUIPMENT DESIGN</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FINAL DESIGN REVIEW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>260</v>
+      </c>
+      <c r="E6" t="n">
+        <v>260</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3, 4, 5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Task Label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Predecessors</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Successors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Contract signing</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2, 3, 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Layout definition(VDR)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>STRUCTURAL DESIGN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EQUIPMENT DESIGN</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FINAL DESIGN REVIEW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3, 4, 5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/outputs/PortfolioMarc_solutions.xlsx
+++ b/outputs/PortfolioMarc_solutions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -495,8 +505,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2, 3, 4</t>
         </is>
@@ -524,10 +544,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>08-01-2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -555,10 +585,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29-03-2023</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>17-06-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -586,10 +626,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17-06-2023</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>05-09-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -617,10 +667,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>05-09-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>05-09-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>3, 4, 5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -633,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,10 +729,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -698,8 +768,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>08-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2, 3, 4</t>
         </is>
@@ -727,10 +807,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>08-01-2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -758,10 +848,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>08-01-2023</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -789,10 +889,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>08-01-2023</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -820,10 +930,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>29-03-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>3, 4, 5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -836,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,10 +992,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -901,8 +1031,18 @@
       <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2, 3, 4</t>
         </is>
@@ -930,10 +1070,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18-01-2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>08-04-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -961,10 +1111,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>08-04-2023</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -992,10 +1152,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27-06-2023</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>15-09-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1023,10 +1193,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>15-09-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15-09-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>3, 4, 5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1039,7 +1219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,10 +1255,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -1104,8 +1294,18 @@
       <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>18-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2, 3, 4</t>
         </is>
@@ -1133,10 +1333,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18-01-2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>08-04-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1164,10 +1374,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18-01-2023</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>08-04-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1195,10 +1415,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18-01-2023</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>08-04-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1226,10 +1456,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>08-04-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>08-04-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>3, 4, 5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1242,7 +1482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,10 +1518,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -1307,8 +1557,18 @@
       <c r="E2" t="n">
         <v>20</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2, 3, 4</t>
         </is>
@@ -1336,10 +1596,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28-01-2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1367,10 +1637,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18-04-2023</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1398,10 +1678,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>25-09-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1429,10 +1719,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>25-09-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>25-09-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>3, 4, 5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1445,7 +1745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1481,10 +1781,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Finish Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Predecessors</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Successors</t>
         </is>
@@ -1510,8 +1820,18 @@
       <c r="E2" t="n">
         <v>20</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>28-01-2023</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2, 3, 4</t>
         </is>
@@ -1539,10 +1859,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28-01-2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1570,10 +1900,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28-01-2023</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1601,10 +1941,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28-01-2023</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1632,10 +1982,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>3, 4, 5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/PortfolioMarc_solutions.xlsx
+++ b/outputs/PortfolioMarc_solutions.xlsx
@@ -518,7 +518,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
     </row>
@@ -579,23 +579,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>02-03-2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>26-04-2024</t>
+          <t>19-06-2026</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="G4" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1; P3-5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -620,19 +620,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29-04-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16-08-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
         <v>160</v>
-      </c>
-      <c r="G5" t="n">
-        <v>240</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -661,23 +661,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19-08-2024</t>
+          <t>22-06-2026</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19-08-2024</t>
+          <t>22-06-2026</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="G6" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -764,24 +764,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25-09-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25-09-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
     </row>
@@ -801,19 +801,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19-08-2024</t>
+          <t>29-04-2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06-12-2024</t>
+          <t>16-08-2024</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>160</v>
+      </c>
+      <c r="G3" t="n">
         <v>240</v>
-      </c>
-      <c r="G3" t="n">
-        <v>320</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -842,19 +842,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09-12-2024</t>
+          <t>19-08-2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-03-2025</t>
+          <t>06-12-2024</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>240</v>
+      </c>
+      <c r="G4" t="n">
         <v>320</v>
-      </c>
-      <c r="G4" t="n">
-        <v>400</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -883,19 +883,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31-03-2025</t>
+          <t>09-12-2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18-07-2025</t>
+          <t>28-03-2025</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>320</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>480</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -924,23 +924,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21-07-2025</t>
+          <t>31-03-2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21-07-2025</t>
+          <t>31-03-2025</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="G6" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1027,24 +1027,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02-10-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02-10-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
     </row>
@@ -1064,19 +1064,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21-07-2025</t>
+          <t>31-03-2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>18-07-2025</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="n">
         <v>480</v>
-      </c>
-      <c r="G3" t="n">
-        <v>560</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1105,19 +1105,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>21-07-2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>480</v>
+      </c>
+      <c r="G4" t="n">
         <v>560</v>
-      </c>
-      <c r="G4" t="n">
-        <v>640</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1146,19 +1146,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19-06-2026</t>
+          <t>27-02-2026</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>560</v>
+      </c>
+      <c r="G5" t="n">
         <v>640</v>
-      </c>
-      <c r="G5" t="n">
-        <v>720</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1187,23 +1187,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-06-2026</t>
+          <t>02-03-2026</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-06-2026</t>
+          <t>02-03-2026</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="G6" t="n">
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1307,7 +1307,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
     </row>
@@ -1368,23 +1368,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18-09-2023</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>05-01-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1; P3-5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1450,23 +1450,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>29-04-2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>29-04-2024</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1553,24 +1553,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25-09-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25-09-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
     </row>
@@ -1590,19 +1590,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25-09-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-01-2024</t>
+          <t>05-01-2024</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1631,19 +1631,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-09-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-01-2024</t>
+          <t>05-01-2024</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1672,19 +1672,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-09-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-01-2024</t>
+          <t>05-01-2024</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1713,23 +1713,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15-01-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15-01-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1816,24 +1816,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02-10-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02-10-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
     </row>
@@ -1853,19 +1853,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02-10-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19-01-2024</t>
+          <t>05-01-2024</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1894,19 +1894,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02-10-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19-01-2024</t>
+          <t>05-01-2024</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1935,19 +1935,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02-10-2023</t>
+          <t>18-09-2023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19-01-2024</t>
+          <t>05-01-2024</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1976,23 +1976,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-01-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-01-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2, 3, 4</t>
+          <t>2; 3; 4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
